--- a/experiments/optics-ajk/sbert/0.2/prediction.xlsx
+++ b/experiments/optics-ajk/sbert/0.2/prediction.xlsx
@@ -458,51 +458,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -538,17 +538,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,17 +558,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,27 +578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,47 +608,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,17 +698,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,67 +738,67 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,67 +818,67 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,17 +888,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,77 +958,77 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,17 +1038,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,17 +1078,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,97 +1238,97 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,17 +1358,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,27 +1378,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,47 +1408,47 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,37 +1468,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,37 +1508,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,27 +1718,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,27 +1788,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,17 +1858,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,17 +1878,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,17 +1918,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,27 +1938,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,17 +1998,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,17 +2038,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,27 +2088,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,27 +2158,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,37 +2198,37 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,27 +2238,27 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,277 +2278,277 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,17 +2558,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,17 +2578,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,57 +2598,57 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,17 +2658,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,47 +2678,47 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,27 +2748,27 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,177 +2778,177 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,77 +2988,77 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,57 +3088,57 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,47 +3148,47 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,27 +3208,27 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,17 +3278,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,17 +3318,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,17 +3338,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3358,17 +3358,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,2871 +3388,2871 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>57</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>64</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>64</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>64</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>69</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>69</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>71</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>72</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>72</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>78</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>93</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>93</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>81</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>81</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>102</v>
+        <v>41</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>106</v>
+        <v>22</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>107</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
